--- a/public/formats/items.xlsx
+++ b/public/formats/items.xlsx
@@ -1,35 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yoel\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{328A4F04-3B26-40A5-BCA4-630DA7CF89DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{176134D1-7D0E-4A68-8051-450D20BCCC12}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+  <si>
+    <t>Nombre</t>
+  </si>
   <si>
     <t>Código Interno</t>
   </si>
   <si>
+    <t>Modelo</t>
+  </si>
+  <si>
     <t>Código Sunat</t>
   </si>
   <si>
@@ -45,6 +51,9 @@
     <t>Codigo Tipo de Afectación del Igv Venta</t>
   </si>
   <si>
+    <t>Tiene Igv</t>
+  </si>
+  <si>
     <t>Precio Unitario Compra</t>
   </si>
   <si>
@@ -57,7 +66,25 @@
     <t>Stock Mínimo</t>
   </si>
   <si>
-    <t>Producto x</t>
+    <t>Categoria</t>
+  </si>
+  <si>
+    <t>Marca</t>
+  </si>
+  <si>
+    <t>Descripcion</t>
+  </si>
+  <si>
+    <t>Nombre secundario</t>
+  </si>
+  <si>
+    <t>Código lote</t>
+  </si>
+  <si>
+    <t>Fec. Vencimiento</t>
+  </si>
+  <si>
+    <t>Cód barras</t>
   </si>
   <si>
     <t>NIU</t>
@@ -66,80 +93,41 @@
     <t>PEN</t>
   </si>
   <si>
-    <t>Tiene Igv</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
     <t>NO</t>
   </si>
   <si>
-    <t>USD</t>
-  </si>
-  <si>
-    <t>Categoria</t>
-  </si>
-  <si>
-    <t>Bebidas</t>
-  </si>
-  <si>
     <t>Gaseosas</t>
   </si>
   <si>
-    <t>Marca</t>
-  </si>
-  <si>
-    <t>Adidas</t>
-  </si>
-  <si>
-    <t>Nike</t>
-  </si>
-  <si>
-    <t>Nombre</t>
-  </si>
-  <si>
-    <t>Descripcion</t>
-  </si>
-  <si>
-    <t>Nombre secundario</t>
-  </si>
-  <si>
-    <t>desc 1</t>
-  </si>
-  <si>
-    <t>desc 2</t>
-  </si>
-  <si>
-    <t>nombre sec 11</t>
-  </si>
-  <si>
-    <t>nombre sec 22</t>
-  </si>
-  <si>
-    <t>Código lote</t>
-  </si>
-  <si>
-    <t>Fec. Vencimiento</t>
-  </si>
-  <si>
-    <t>Pepsi Coca cola</t>
-  </si>
-  <si>
-    <t>P1212</t>
+    <t>GA001</t>
+  </si>
+  <si>
+    <t>BI001</t>
+  </si>
+  <si>
+    <t>BILLETERA D&amp;G COLOR NEGRO</t>
+  </si>
+  <si>
+    <t>D&amp;G</t>
+  </si>
+  <si>
+    <t>B1000001</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -164,7 +152,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -199,7 +187,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -211,7 +199,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -228,9 +216,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -258,14 +246,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -293,6 +298,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -445,191 +467,151 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="38.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="3" max="4" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="21" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="8" max="8" width="36.7109375" customWidth="1"/>
+    <col min="9" max="9" width="9" customWidth="1"/>
+    <col min="10" max="10" width="21.7109375" customWidth="1"/>
+    <col min="11" max="11" width="38.28515625" customWidth="1"/>
+    <col min="12" max="12" width="5.7109375" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" customWidth="1"/>
+    <col min="17" max="17" width="18.5703125" customWidth="1"/>
+    <col min="19" max="19" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="I1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="N1" t="s">
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2">
+        <v>51121703</v>
+      </c>
+      <c r="E2" t="s">
         <v>20</v>
       </c>
-      <c r="O1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>30</v>
-      </c>
-      <c r="R1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2">
+        <v>90</v>
+      </c>
+      <c r="H2">
         <v>10</v>
       </c>
-      <c r="C2">
-        <v>20202020</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2">
-        <v>120.25</v>
-      </c>
-      <c r="G2">
-        <v>10</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2">
-        <v>120.5</v>
+      <c r="I2" t="s">
+        <v>22</v>
       </c>
       <c r="J2">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="K2">
         <v>10</v>
       </c>
       <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2" t="s">
-        <v>18</v>
+        <v>4000</v>
+      </c>
+      <c r="M2">
+        <v>10</v>
       </c>
       <c r="N2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" t="s">
         <v>26</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
+        <v>26</v>
+      </c>
+      <c r="S2" s="1"/>
+      <c r="T2" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3">
-        <v>51121703</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3">
-        <v>150</v>
-      </c>
-      <c r="G3">
-        <v>10</v>
-      </c>
-      <c r="H3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3">
-        <v>150</v>
-      </c>
-      <c r="J3">
-        <v>10</v>
-      </c>
-      <c r="K3">
-        <v>50</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3" t="s">
-        <v>19</v>
-      </c>
-      <c r="N3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O3" t="s">
-        <v>27</v>
-      </c>
-      <c r="P3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q3">
-        <v>11223344</v>
-      </c>
-      <c r="R3" s="1">
-        <v>44123</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>